--- a/src/main/resources/jxls_templates/warehousearea_import.xlsx
+++ b/src/main/resources/jxls_templates/warehousearea_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>库区导入</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>*所属仓库编码</t>
+  </si>
+  <si>
+    <t>最大存储数量</t>
   </si>
   <si>
     <t>备注</t>
@@ -1019,28 +1022,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="18.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.5555555555556" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="4" width="18.3363636363636" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5545454545455" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.89090909090909" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:4">
+    <row r="1" ht="25.5" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:4">
+    <row r="2" s="1" customFormat="1" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1053,13 +1057,16 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>101</v>
@@ -1067,7 +1074,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/jxls_templates/warehousearea_import.xlsx
+++ b/src/main/resources/jxls_templates/warehousearea_import.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="22368" windowHeight="9564"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>库区导入</t>
   </si>
@@ -25,16 +25,13 @@
     <t>*库区名称</t>
   </si>
   <si>
-    <t>*所属仓库编码</t>
+    <t>*所属仓库名称</t>
   </si>
   <si>
     <t>最大存储数量</t>
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>A01</t>
   </si>
 </sst>
 </file>
@@ -1022,20 +1019,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="18.3363636363636" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5545454545455" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.89090909090909" style="2"/>
+    <col min="1" max="4" width="18.3333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:5">
+    <row r="1" ht="25.8" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1061,17 +1058,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>101</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/src/main/resources/jxls_templates/warehousearea_import.xlsx
+++ b/src/main/resources/jxls_templates/warehousearea_import.xlsx
@@ -19,13 +19,67 @@
     <t>库区导入</t>
   </si>
   <si>
-    <t>*库区编码</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库区编码</t>
+    </r>
   </si>
   <si>
-    <t>*库区名称</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>库区名称</t>
+    </r>
   </si>
   <si>
-    <t>*所属仓库名称</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所属仓库名称</t>
+    </r>
   </si>
   <si>
     <t>最大存储数量</t>
@@ -44,7 +98,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +125,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -413,27 +474,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,36 +600,33 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,112 +636,118 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1022,17 +1071,18 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="33" customHeight="1" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="4" width="18.3333333333333" style="2" customWidth="1"/>
+    <col min="1" max="2" width="20.3333333333333" style="2" customWidth="1"/>
+    <col min="3" max="4" width="18.3333333333333" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.5555555555556" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:5">
+    <row r="1" customHeight="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1091,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1051,10 +1101,10 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
